--- a/2022-03-22.xlsx
+++ b/2022-03-22.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44642.34762905461</v>
+        <v>44642.34762905093</v>
       </c>
       <c r="B20" t="n">
         <v>50.147</v>
@@ -768,6 +768,38 @@
       </c>
       <c r="D20" t="n">
         <v>74.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>44642.34833074074</v>
+      </c>
+      <c r="B21" t="n">
+        <v>47.712</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>44642.34903187118</v>
+      </c>
+      <c r="B22" t="n">
+        <v>48.686</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>56.1</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,6 +1552,44 @@
       </c>
       <c r="L8" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44642.34851678241</v>
+      </c>
+      <c r="B9" t="n">
+        <v>192.84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1767.62</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-492.08</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1834.83</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,6 +2123,44 @@
         <v>0.01</v>
       </c>
       <c r="L13" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>44642.34838446759</v>
+      </c>
+      <c r="B14" t="n">
+        <v>197.68</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-73.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-41.79</v>
+      </c>
+      <c r="F14" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.01</v>
       </c>
     </row>
